--- a/data/trans_orig/P32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5691</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1938</v>
+        <v>2729</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11463</v>
+        <v>11477</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03893703905372228</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01325772891904789</v>
+        <v>0.01867249062222819</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07843466252730209</v>
+        <v>0.07853097914733539</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7486</v>
+        <v>5818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02622762486466967</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1018866142037478</v>
+        <v>0.07917598495892493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>7618</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2904</v>
+        <v>2922</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14295</v>
+        <v>14388</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03468509401586607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01322072367163655</v>
+        <v>0.01330672563055992</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06508746868124589</v>
+        <v>0.06551378194775984</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>140458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>134686</v>
+        <v>134672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144211</v>
+        <v>143420</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9610629609462777</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.921565337472698</v>
+        <v>0.9214690208526647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9867422710809521</v>
+        <v>0.9813275093777718</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -836,7 +836,7 @@
         <v>71549</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65990</v>
+        <v>67658</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>73476</v>
@@ -845,7 +845,7 @@
         <v>0.9737723751353303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8981133857962518</v>
+        <v>0.920824015041075</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>212007</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>205330</v>
+        <v>205237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216721</v>
+        <v>216703</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9653149059841339</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9349125313187541</v>
+        <v>0.9344862180522402</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9867792763283634</v>
+        <v>0.9866932743694401</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>13119</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7569</v>
+        <v>7113</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22306</v>
+        <v>21126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05733518999142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03307728911500394</v>
+        <v>0.03108703224735058</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09748554311872386</v>
+        <v>0.09232534193035936</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4868</v>
+        <v>5016</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01348087794656352</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06690654017567425</v>
+        <v>0.06895127399033608</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1003,19 +1003,19 @@
         <v>14100</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7919</v>
+        <v>7785</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22403</v>
+        <v>22311</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04675569061431503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02626069036788451</v>
+        <v>0.02581596649028694</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07428864960182864</v>
+        <v>0.07398336599008166</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>215698</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>206511</v>
+        <v>207691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>221248</v>
+        <v>221704</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.94266481000858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.902514456881277</v>
+        <v>0.9076746580696408</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9669227108849964</v>
+        <v>0.9689129677526495</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>71</v>
@@ -1053,7 +1053,7 @@
         <v>71770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67883</v>
+        <v>67735</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>72751</v>
@@ -1062,7 +1062,7 @@
         <v>0.9865191220534365</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.933093459824326</v>
+        <v>0.9310487260096684</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>287468</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>279165</v>
+        <v>279257</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>293649</v>
+        <v>293783</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9532443093856849</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9257113503981718</v>
+        <v>0.926016634009919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9737393096321156</v>
+        <v>0.9741840335097136</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6030</v>
+        <v>5136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00513806565665146</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03109377809699969</v>
+        <v>0.02648463101111046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4962</v>
+        <v>4987</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003547335010931023</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0176637862042632</v>
+        <v>0.01775275686178509</v>
       </c>
     </row>
     <row r="11">
@@ -1241,7 +1241,7 @@
         <v>192944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>187910</v>
+        <v>188804</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>193940</v>
@@ -1250,7 +1250,7 @@
         <v>0.9948619343433486</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9689062219030001</v>
+        <v>0.9735153689888877</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>279913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>275947</v>
+        <v>275922</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>280909</v>
@@ -1284,7 +1284,7 @@
         <v>0.9964526649890689</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9823362137957369</v>
+        <v>0.9822472431382148</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1379,19 +1379,19 @@
         <v>11115</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5668</v>
+        <v>5629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19534</v>
+        <v>19664</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04672370930087083</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02382358046403279</v>
+        <v>0.02366293005069107</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08211358392552544</v>
+        <v>0.08265731852283627</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1400,19 +1400,19 @@
         <v>4741</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1469</v>
+        <v>1155</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11036</v>
+        <v>11245</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03621353413684007</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01121898408537249</v>
+        <v>0.008819651796552154</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08428962489170903</v>
+        <v>0.08588608236858991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1421,19 +1421,19 @@
         <v>15857</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9058</v>
+        <v>9064</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25851</v>
+        <v>25403</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04299274618268025</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02455957655531623</v>
+        <v>0.02457566165965347</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07009034928816381</v>
+        <v>0.06887526679953468</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>226780</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>218361</v>
+        <v>218231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>232227</v>
+        <v>232266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9532762906991292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9178864160744744</v>
+        <v>0.9173426814771635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9761764195359672</v>
+        <v>0.9763370699493088</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1471,19 +1471,19 @@
         <v>126185</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>119890</v>
+        <v>119681</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129457</v>
+        <v>129771</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.96378646586316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9157103751082906</v>
+        <v>0.9141139176314099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9887810159146275</v>
+        <v>0.9911803482034478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>357</v>
@@ -1492,19 +1492,19 @@
         <v>352965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342971</v>
+        <v>343419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>359764</v>
+        <v>359758</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9570072538173198</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9299096507118362</v>
+        <v>0.9311247332004653</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9754404234446837</v>
+        <v>0.9754243383403466</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>2612</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7144</v>
+        <v>7076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02695616957240284</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008279563412227268</v>
+        <v>0.008376341959660258</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07372309636975628</v>
+        <v>0.07302064398629894</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8324</v>
+        <v>8133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03576304738763986</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1795640671530949</v>
+        <v>0.1754386376178482</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1638,19 +1638,19 @@
         <v>4270</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>930</v>
+        <v>1467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10448</v>
+        <v>10290</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02980607690250676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006494581709836363</v>
+        <v>0.01023795242823691</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07293248321544894</v>
+        <v>0.07183270727523255</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>94286</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89754</v>
+        <v>89822</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96096</v>
+        <v>96086</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9730438304275971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9262769036302437</v>
+        <v>0.9269793560137011</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9917204365877728</v>
+        <v>0.9916236580403397</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -1688,7 +1688,7 @@
         <v>44699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38033</v>
+        <v>38224</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>46357</v>
@@ -1697,7 +1697,7 @@
         <v>0.9642369526123602</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8204359328469012</v>
+        <v>0.8245613623821626</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1709,19 +1709,19 @@
         <v>138985</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>132807</v>
+        <v>132965</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>142325</v>
+        <v>141788</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9701939230974932</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9270675167845511</v>
+        <v>0.9281672927247674</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9935054182901636</v>
+        <v>0.9897620475717647</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>4670</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12259</v>
+        <v>10725</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02403716663147117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005401329771478862</v>
+        <v>0.005326266063058801</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06309697233274575</v>
+        <v>0.05520344824376316</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6120</v>
+        <v>5961</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0176861007589026</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0547520914808519</v>
+        <v>0.05332306041278488</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1855,19 +1855,19 @@
         <v>6647</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2862</v>
+        <v>2760</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14219</v>
+        <v>13437</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02171759968355619</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009352329111797592</v>
+        <v>0.009018172176453364</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04645711970607659</v>
+        <v>0.04390198355451038</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>189614</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>182025</v>
+        <v>183559</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193235</v>
+        <v>193249</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9759628333685288</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9369030276672542</v>
+        <v>0.9447965517562373</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9945986702285211</v>
+        <v>0.9946737339369411</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -1905,7 +1905,7 @@
         <v>109806</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>105663</v>
+        <v>105822</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>111783</v>
@@ -1914,7 +1914,7 @@
         <v>0.9823138992410974</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9452479085191481</v>
+        <v>0.946676939587215</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1926,19 +1926,19 @@
         <v>299420</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>291848</v>
+        <v>292630</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>303205</v>
+        <v>303307</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9782824003164439</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9535428802939235</v>
+        <v>0.9560980164454898</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9906476708882024</v>
+        <v>0.9909818278235467</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>5273</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1783</v>
+        <v>1847</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11576</v>
+        <v>11090</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01818138073350154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006147620149799786</v>
+        <v>0.006369856439541043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03991393156274055</v>
+        <v>0.03823652430772635</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2064,19 +2064,19 @@
         <v>5273</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1815</v>
+        <v>1836</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12459</v>
+        <v>11942</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01248349271854244</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00429673640139624</v>
+        <v>0.004346426139964764</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0294956546005387</v>
+        <v>0.02827049434723109</v>
       </c>
     </row>
     <row r="23">
@@ -2093,19 +2093,19 @@
         <v>284760</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>278457</v>
+        <v>278943</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>288250</v>
+        <v>288186</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9818186192664985</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9600860684372601</v>
+        <v>0.9617634756922735</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9938523798502003</v>
+        <v>0.993630143560459</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>131</v>
@@ -2127,19 +2127,19 @@
         <v>417141</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>409955</v>
+        <v>410472</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>420599</v>
+        <v>420578</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9875165072814576</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9705043453994615</v>
+        <v>0.9717295056527691</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9957032635986037</v>
+        <v>0.9956535738600353</v>
       </c>
     </row>
     <row r="24">
@@ -2231,19 +2231,19 @@
         <v>8012</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3597</v>
+        <v>3675</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16248</v>
+        <v>16266</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01625589211911367</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007297292691374389</v>
+        <v>0.007455249592328804</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03296467117592886</v>
+        <v>0.03300130101483065</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6813</v>
+        <v>6965</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008147453755120285</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02839329744913018</v>
+        <v>0.02902808812665165</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2273,19 +2273,19 @@
         <v>9967</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5252</v>
+        <v>5203</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18665</v>
+        <v>18306</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01360106654712638</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007166485574305827</v>
+        <v>0.007100095163317435</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02546984672515434</v>
+        <v>0.02497961204208556</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>484876</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>476640</v>
+        <v>476622</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>489291</v>
+        <v>489213</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9837441078808863</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9670353288240711</v>
+        <v>0.9669986989851691</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9927027073086256</v>
+        <v>0.9925447504076711</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>227</v>
@@ -2323,7 +2323,7 @@
         <v>237983</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>233125</v>
+        <v>232973</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>239938</v>
@@ -2332,7 +2332,7 @@
         <v>0.9918525462448797</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9716067025508699</v>
+        <v>0.9709719118733481</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2344,19 +2344,19 @@
         <v>722859</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>714161</v>
+        <v>714520</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>727574</v>
+        <v>727623</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9863989334528737</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9745301532748457</v>
+        <v>0.9750203879579143</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9928335144256941</v>
+        <v>0.9928999048366826</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>51489</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37771</v>
+        <v>38856</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>65695</v>
+        <v>67536</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02737474208489276</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02008156014328001</v>
+        <v>0.02065811607596086</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03492730951804354</v>
+        <v>0.03590607015298731</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -2469,19 +2469,19 @@
         <v>13239</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01479901423863817</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>62</v>
@@ -2490,19 +2490,19 @@
         <v>64728</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>50776</v>
+        <v>48652</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>83542</v>
+        <v>82676</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02332139241572334</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01829445641293876</v>
+        <v>0.0175290413648806</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03009977908229163</v>
+        <v>0.02978795583620871</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>1829415</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1815209</v>
+        <v>1813368</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1843133</v>
+        <v>1842048</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9726252579151072</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9650726904819563</v>
+        <v>0.9640939298470127</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9799184398567196</v>
+        <v>0.9793418839240392</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>862</v>
@@ -2540,19 +2540,19 @@
         <v>881342</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>871505</v>
+        <v>871165</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>887885</v>
+        <v>887450</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9852009857613618</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9742044945803808</v>
+        <v>0.9738246895860075</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9925147052490745</v>
+        <v>0.9920290255533293</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2658</v>
@@ -2561,19 +2561,19 @@
         <v>2710758</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2691944</v>
+        <v>2692810</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2724710</v>
+        <v>2726834</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9766786075842767</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9699002209177086</v>
+        <v>0.9702120441637913</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9817055435870615</v>
+        <v>0.9824709586351192</v>
       </c>
     </row>
     <row r="30">
@@ -2909,19 +2909,19 @@
         <v>42655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30859</v>
+        <v>31535</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54334</v>
+        <v>55341</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2432908726451886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1760107181753532</v>
+        <v>0.1798665691482536</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3099022592715747</v>
+        <v>0.3156469302192086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2930,19 +2930,19 @@
         <v>6686</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15810</v>
+        <v>16343</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06153137155514454</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01687671212570625</v>
+        <v>0.01678842714162779</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1455039573482886</v>
+        <v>0.150413358589536</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -2951,19 +2951,19 @@
         <v>49340</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36487</v>
+        <v>37049</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63969</v>
+        <v>63805</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1737475123134147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1284839249980929</v>
+        <v>0.1304626410704281</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2252600894769864</v>
+        <v>0.2246821190487259</v>
       </c>
     </row>
     <row r="5">
@@ -2980,19 +2980,19 @@
         <v>132670</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120991</v>
+        <v>119984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144466</v>
+        <v>143790</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7567091273548114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6900977407284253</v>
+        <v>0.6843530697807915</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8239892818246468</v>
+        <v>0.8201334308517466</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>90</v>
@@ -3001,19 +3001,19 @@
         <v>101968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92844</v>
+        <v>92311</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106820</v>
+        <v>106830</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9384686284448555</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8544960426517114</v>
+        <v>0.849586641410464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9831232878742937</v>
+        <v>0.9832115728583722</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>218</v>
@@ -3022,19 +3022,19 @@
         <v>234638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>220009</v>
+        <v>220173</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>247491</v>
+        <v>246929</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8262524876865852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7747399105230135</v>
+        <v>0.7753178809512742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8715160750019071</v>
+        <v>0.8695373589295721</v>
       </c>
     </row>
     <row r="6">
@@ -3126,19 +3126,19 @@
         <v>26960</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18317</v>
+        <v>17534</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38618</v>
+        <v>39227</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08693348741898844</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05906367151183124</v>
+        <v>0.05654046139780986</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1245248287859374</v>
+        <v>0.1264889320563386</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3147,19 +3147,19 @@
         <v>3959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9976</v>
+        <v>9862</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02615713966685529</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006625326918403243</v>
+        <v>0.006558660701252583</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0659087821597006</v>
+        <v>0.06515265497663225</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -3168,19 +3168,19 @@
         <v>30919</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20876</v>
+        <v>21429</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43966</v>
+        <v>43511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06699940269874997</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04523604258875342</v>
+        <v>0.04643500195275822</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09527215310997381</v>
+        <v>0.09428481265611349</v>
       </c>
     </row>
     <row r="8">
@@ -3197,19 +3197,19 @@
         <v>283160</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>271502</v>
+        <v>270893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>291803</v>
+        <v>292586</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9130665125810116</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.875475171214063</v>
+        <v>0.8735110679436608</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9409363284881688</v>
+        <v>0.9434595386021901</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>135</v>
@@ -3218,19 +3218,19 @@
         <v>147403</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>141386</v>
+        <v>141500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>150359</v>
+        <v>150369</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9738428603331447</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9340912178402994</v>
+        <v>0.9348473450233677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9933746730815968</v>
+        <v>0.9934413392987475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>402</v>
@@ -3239,19 +3239,19 @@
         <v>430563</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>417516</v>
+        <v>417971</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>440606</v>
+        <v>440053</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9330005973012501</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9047278468900262</v>
+        <v>0.9057151873438873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9547639574112471</v>
+        <v>0.9535649980472418</v>
       </c>
     </row>
     <row r="9">
@@ -3343,19 +3343,19 @@
         <v>3866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9531</v>
+        <v>9677</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.019092028445741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004798647630298635</v>
+        <v>0.004742729820926338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04707072085264561</v>
+        <v>0.04779465633658578</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4850</v>
+        <v>5250</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0079091815023764</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03890558783145547</v>
+        <v>0.04211476454739124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3385,19 +3385,19 @@
         <v>4851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1893</v>
+        <v>1860</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10989</v>
+        <v>9899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01483083869140477</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005786369627918496</v>
+        <v>0.005685594245397013</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03359156530046391</v>
+        <v>0.03025954871712937</v>
       </c>
     </row>
     <row r="11">
@@ -3414,19 +3414,19 @@
         <v>198607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>192942</v>
+        <v>192796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201501</v>
+        <v>201513</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.980907971554259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9529292791473555</v>
+        <v>0.9522053436634142</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9952013523697014</v>
+        <v>0.9952572701790737</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>113</v>
@@ -3435,7 +3435,7 @@
         <v>123663</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119799</v>
+        <v>119399</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>124649</v>
@@ -3444,7 +3444,7 @@
         <v>0.9920908184976236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9610944121685444</v>
+        <v>0.9578852354526063</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3456,19 +3456,19 @@
         <v>322271</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>316133</v>
+        <v>317223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>325229</v>
+        <v>325262</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9851691613085952</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9664084346995362</v>
+        <v>0.9697404512828707</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9942136303720814</v>
+        <v>0.9943144057546031</v>
       </c>
     </row>
     <row r="12">
@@ -3560,19 +3560,19 @@
         <v>7944</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3100</v>
+        <v>2924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15808</v>
+        <v>15948</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04177137615404997</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01630377723006017</v>
+        <v>0.01537505523828053</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08312768547333267</v>
+        <v>0.08386272115360122</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5801</v>
+        <v>5671</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02105966316191936</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06641775207457361</v>
+        <v>0.06492998403335325</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3602,19 +3602,19 @@
         <v>9783</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4820</v>
+        <v>4806</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18043</v>
+        <v>18834</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03525267464353593</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01737002487875802</v>
+        <v>0.01731912549469036</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06501802130153811</v>
+        <v>0.06786949054410031</v>
       </c>
     </row>
     <row r="14">
@@ -3631,19 +3631,19 @@
         <v>182224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174360</v>
+        <v>174220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187068</v>
+        <v>187244</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.95822862384595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9168723145266681</v>
+        <v>0.916137278846399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9836962227699398</v>
+        <v>0.9846249447617196</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -3652,7 +3652,7 @@
         <v>85503</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81541</v>
+        <v>81671</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>87342</v>
@@ -3661,7 +3661,7 @@
         <v>0.9789403368380807</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9335822479254265</v>
+        <v>0.9350700159666471</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3673,19 +3673,19 @@
         <v>267727</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>259467</v>
+        <v>258676</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>272690</v>
+        <v>272704</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9647473253564641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9349819786984619</v>
+        <v>0.9321305094558998</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9826299751212421</v>
+        <v>0.9826808745053097</v>
       </c>
     </row>
     <row r="15">
@@ -3777,19 +3777,19 @@
         <v>11189</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5934</v>
+        <v>6107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19090</v>
+        <v>19716</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08726891599603903</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04628653819208308</v>
+        <v>0.0476359788177101</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.148896251951543</v>
+        <v>0.1537840103307838</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4105</v>
+        <v>4441</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01640328839239859</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07585719620247434</v>
+        <v>0.08207024545497156</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3819,19 +3819,19 @@
         <v>12076</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6505</v>
+        <v>6931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19974</v>
+        <v>19992</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06623702417509157</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03567782514672976</v>
+        <v>0.03801507982680936</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1095584726909139</v>
+        <v>0.1096552476082422</v>
       </c>
     </row>
     <row r="17">
@@ -3848,19 +3848,19 @@
         <v>117019</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109118</v>
+        <v>108492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122274</v>
+        <v>122101</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.912731084003961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8511037480484562</v>
+        <v>0.8462159896692163</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9537134618079168</v>
+        <v>0.9523640211822899</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -3869,7 +3869,7 @@
         <v>53221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50004</v>
+        <v>49668</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>54109</v>
@@ -3878,7 +3878,7 @@
         <v>0.9835967116076014</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9241428037975259</v>
+        <v>0.9179297545450282</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3890,19 +3890,19 @@
         <v>170241</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>162343</v>
+        <v>162325</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>175812</v>
+        <v>175386</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9337629758249084</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.890441527309086</v>
+        <v>0.8903447523917577</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9643221748532702</v>
+        <v>0.9619849201731906</v>
       </c>
     </row>
     <row r="18">
@@ -3994,19 +3994,19 @@
         <v>6394</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2383</v>
+        <v>2207</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12973</v>
+        <v>13917</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03470525118597775</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01293569819951549</v>
+        <v>0.01197997795879818</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07041026454655035</v>
+        <v>0.0755321179641492</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5413</v>
+        <v>5603</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01009018576886362</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05745968032527519</v>
+        <v>0.05948109746434598</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -4036,19 +4036,19 @@
         <v>7345</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3024</v>
+        <v>2933</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14160</v>
+        <v>14192</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02637747697095699</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01085957639989821</v>
+        <v>0.01053214177281562</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05085285527084541</v>
+        <v>0.05096771379539631</v>
       </c>
     </row>
     <row r="20">
@@ -4065,19 +4065,19 @@
         <v>177853</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>171274</v>
+        <v>170330</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>181864</v>
+        <v>182040</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9652947488140222</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9295897354534494</v>
+        <v>0.9244678820358511</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9870643018004842</v>
+        <v>0.9880200220412021</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>90</v>
@@ -4086,7 +4086,7 @@
         <v>93255</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>88793</v>
+        <v>88603</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>94206</v>
@@ -4095,7 +4095,7 @@
         <v>0.9899098142311363</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9425403196747247</v>
+        <v>0.9405189025356531</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -4107,19 +4107,19 @@
         <v>271108</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>264293</v>
+        <v>264261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>275429</v>
+        <v>275520</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9736225230290431</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9491471447291541</v>
+        <v>0.9490322862046031</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9891404236001017</v>
+        <v>0.9894678582271844</v>
       </c>
     </row>
     <row r="21">
@@ -4211,19 +4211,19 @@
         <v>19576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12126</v>
+        <v>11288</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29747</v>
+        <v>30377</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0492505167278697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03050893825847245</v>
+        <v>0.02840041048356481</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0748415165640935</v>
+        <v>0.07642644067957152</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4232,19 +4232,19 @@
         <v>3118</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8761</v>
+        <v>8446</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01453520359079941</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004531877065535816</v>
+        <v>0.004572551893088511</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04084114303620216</v>
+        <v>0.03936847089458986</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4253,19 +4253,19 @@
         <v>22694</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15059</v>
+        <v>14444</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34444</v>
+        <v>34490</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03708159583860998</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02460706982998037</v>
+        <v>0.02360229706162254</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05628208109967148</v>
+        <v>0.05635660720318315</v>
       </c>
     </row>
     <row r="23">
@@ -4282,19 +4282,19 @@
         <v>377893</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>367722</v>
+        <v>367092</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>385343</v>
+        <v>386181</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9507494832721303</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9251584834359067</v>
+        <v>0.9235735593204288</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9694910617415277</v>
+        <v>0.9715995895164353</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>192</v>
@@ -4303,19 +4303,19 @@
         <v>211407</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>205764</v>
+        <v>206079</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>213553</v>
+        <v>213544</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9854647964092006</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9591588569637979</v>
+        <v>0.9606315291054102</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9954681229344642</v>
+        <v>0.9954274481069114</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>549</v>
@@ -4324,19 +4324,19 @@
         <v>589301</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>577551</v>
+        <v>577505</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>596936</v>
+        <v>597551</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9629184041613901</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9437179189003285</v>
+        <v>0.9436433927968173</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9753929301700198</v>
+        <v>0.9763977029383775</v>
       </c>
     </row>
     <row r="24">
@@ -4428,19 +4428,19 @@
         <v>19060</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11341</v>
+        <v>11298</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31529</v>
+        <v>30586</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04211109075443719</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0250561564026441</v>
+        <v>0.02496273350422774</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0696599436070541</v>
+        <v>0.06757650494984359</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -4449,19 +4449,19 @@
         <v>4280</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10612</v>
+        <v>10132</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01981676289759757</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004976923424889803</v>
+        <v>0.005026992688461078</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04913625013523862</v>
+        <v>0.04691370023926111</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -4470,19 +4470,19 @@
         <v>23340</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15212</v>
+        <v>14344</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36703</v>
+        <v>36709</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03490959579586105</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02275356438688203</v>
+        <v>0.02145490309410944</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05489808118222231</v>
+        <v>0.05490613175432596</v>
       </c>
     </row>
     <row r="26">
@@ -4499,19 +4499,19 @@
         <v>433549</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>421080</v>
+        <v>422023</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>441268</v>
+        <v>441311</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9578889092455628</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9303400563929459</v>
+        <v>0.9324234950501562</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9749438435973559</v>
+        <v>0.9750372664957723</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>194</v>
@@ -4520,19 +4520,19 @@
         <v>211681</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>205349</v>
+        <v>205829</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>214886</v>
+        <v>214875</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9801832371024024</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9508637498647613</v>
+        <v>0.9530862997607384</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9950230765751101</v>
+        <v>0.9949730073115389</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>592</v>
@@ -4541,19 +4541,19 @@
         <v>645231</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>631868</v>
+        <v>631862</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>653359</v>
+        <v>654227</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9650904042041389</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9451019188177777</v>
+        <v>0.9450938682456739</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.977246435613118</v>
+        <v>0.9785450969058905</v>
       </c>
     </row>
     <row r="27">
@@ -4645,19 +4645,19 @@
         <v>137642</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>115342</v>
+        <v>115844</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>163239</v>
+        <v>162422</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06745123370676877</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05652300715525838</v>
+        <v>0.05676929274035208</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07999481895838999</v>
+        <v>0.07959436195251264</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -4666,19 +4666,19 @@
         <v>22706</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14226</v>
+        <v>13992</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>35388</v>
+        <v>34649</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02160813611628303</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01353804092816569</v>
+        <v>0.01331594068104769</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03367722755220391</v>
+        <v>0.03297407407012681</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>147</v>
@@ -4687,19 +4687,19 @@
         <v>160348</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>134424</v>
+        <v>136379</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>188089</v>
+        <v>186957</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05186869192617114</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04348286815153993</v>
+        <v>0.04411528552267046</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06084198819087693</v>
+        <v>0.06047595843470529</v>
       </c>
     </row>
     <row r="29">
@@ -4716,19 +4716,19 @@
         <v>1902977</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1877380</v>
+        <v>1878197</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1925277</v>
+        <v>1924775</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9325487662932312</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.92000518104161</v>
+        <v>0.9204056380474875</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9434769928447416</v>
+        <v>0.943230707259648</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>945</v>
@@ -4737,19 +4737,19 @@
         <v>1028102</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1015420</v>
+        <v>1016159</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1036582</v>
+        <v>1036816</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.978391863883717</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.966322772447796</v>
+        <v>0.9670259259298731</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9864619590718343</v>
+        <v>0.9866840593189524</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2737</v>
@@ -4758,19 +4758,19 @@
         <v>2931079</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2903338</v>
+        <v>2904470</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2957003</v>
+        <v>2955048</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9481313080738288</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9391580118091231</v>
+        <v>0.9395240415652952</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9565171318484602</v>
+        <v>0.9558847144773296</v>
       </c>
     </row>
     <row r="30">
@@ -5106,19 +5106,19 @@
         <v>27928</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18904</v>
+        <v>18340</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40212</v>
+        <v>39953</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.15631032198519</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1058019550620395</v>
+        <v>0.1026481210762887</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2250605614702074</v>
+        <v>0.2236135118085602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5127,19 +5127,19 @@
         <v>8357</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3768</v>
+        <v>3904</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16458</v>
+        <v>16722</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08025928308620793</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0361896874070748</v>
+        <v>0.03749509798810111</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1580722399763866</v>
+        <v>0.1606083294670745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -5148,19 +5148,19 @@
         <v>36285</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25989</v>
+        <v>25875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49810</v>
+        <v>49689</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1283096149607816</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09190166906134548</v>
+        <v>0.09149960207996492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1761377714915795</v>
+        <v>0.1757094612568186</v>
       </c>
     </row>
     <row r="5">
@@ -5177,19 +5177,19 @@
         <v>150744</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>138460</v>
+        <v>138719</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159768</v>
+        <v>160332</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.84368967801481</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7749394385297926</v>
+        <v>0.7763864881914398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8941980449379604</v>
+        <v>0.8973518789237112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -5198,19 +5198,19 @@
         <v>95762</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>87661</v>
+        <v>87397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100351</v>
+        <v>100215</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9197407169137921</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8419277600236124</v>
+        <v>0.8393916705329254</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9638103125929252</v>
+        <v>0.9625049020118989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>235</v>
@@ -5219,19 +5219,19 @@
         <v>246507</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232982</v>
+        <v>233103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256803</v>
+        <v>256917</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8716903850392185</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8238622285084205</v>
+        <v>0.8242905387431816</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9080983309386544</v>
+        <v>0.9085003979200351</v>
       </c>
     </row>
     <row r="6">
@@ -5323,19 +5323,19 @@
         <v>3494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9404</v>
+        <v>9420</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01305006491549836</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003781375226233277</v>
+        <v>0.0037903161500081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03512380370838511</v>
+        <v>0.03518201615038608</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4493</v>
+        <v>5578</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01084550561657757</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0439365217475015</v>
+        <v>0.05454902814514595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -5365,19 +5365,19 @@
         <v>4603</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1338</v>
+        <v>1132</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11667</v>
+        <v>10729</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01244077433613322</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003616067253345824</v>
+        <v>0.003058206268312939</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0315333459055201</v>
+        <v>0.0289968399388334</v>
       </c>
     </row>
     <row r="8">
@@ -5394,19 +5394,19 @@
         <v>264244</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>258334</v>
+        <v>258318</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>266726</v>
+        <v>266723</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9869499350845017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9648761962916149</v>
+        <v>0.9648179838496139</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9962186247737668</v>
+        <v>0.9962096838499919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>96</v>
@@ -5415,7 +5415,7 @@
         <v>101150</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>97766</v>
+        <v>96681</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>102259</v>
@@ -5424,7 +5424,7 @@
         <v>0.9891544943834224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9560634782524985</v>
+        <v>0.9454509718548543</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5436,19 +5436,19 @@
         <v>365394</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>358330</v>
+        <v>359268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>368659</v>
+        <v>368865</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9875592256638668</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9684666540944797</v>
+        <v>0.9710031600611666</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9963839327466542</v>
+        <v>0.996941793731687</v>
       </c>
     </row>
     <row r="9">
@@ -5540,19 +5540,19 @@
         <v>4611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1815</v>
+        <v>1729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10858</v>
+        <v>10267</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02258571896659837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008888027343983361</v>
+        <v>0.008470157044835631</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05317875115906581</v>
+        <v>0.05028404962029015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4331</v>
+        <v>4502</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006898052863474353</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03536370218792254</v>
+        <v>0.03675659112764036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -5582,19 +5582,19 @@
         <v>5456</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1906</v>
+        <v>1862</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10793</v>
+        <v>10948</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01670370058649794</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005833992694967195</v>
+        <v>0.00570053286771368</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03304060959198013</v>
+        <v>0.0335156985458771</v>
       </c>
     </row>
     <row r="11">
@@ -5611,19 +5611,19 @@
         <v>199566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>193319</v>
+        <v>193910</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>202362</v>
+        <v>202448</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9774142810334017</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9468212488409343</v>
+        <v>0.9497159503797099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9911119726560167</v>
+        <v>0.9915298429551644</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -5632,7 +5632,7 @@
         <v>121633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118147</v>
+        <v>117976</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>122478</v>
@@ -5641,7 +5641,7 @@
         <v>0.9931019471365257</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9646362978120774</v>
+        <v>0.963243408872358</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5653,19 +5653,19 @@
         <v>321199</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>315862</v>
+        <v>315707</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>324749</v>
+        <v>324793</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9832962994135021</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9669593904080201</v>
+        <v>0.9664843014541228</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9941660073050329</v>
+        <v>0.9942994671322863</v>
       </c>
     </row>
     <row r="12">
@@ -5757,19 +5757,19 @@
         <v>9779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4344</v>
+        <v>4817</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18099</v>
+        <v>17997</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04189849126009795</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01861023386870892</v>
+        <v>0.02063661101517352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07754138116688562</v>
+        <v>0.07710703975781162</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9681</v>
+        <v>8885</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01678963343676759</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06410703945405268</v>
+        <v>0.05883586475689145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -5799,19 +5799,19 @@
         <v>12315</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6523</v>
+        <v>6388</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22063</v>
+        <v>21900</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03203476736725198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01696935004002834</v>
+        <v>0.01661676836672303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05739153606172955</v>
+        <v>0.05696858889765339</v>
       </c>
     </row>
     <row r="14">
@@ -5828,19 +5828,19 @@
         <v>223630</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>215310</v>
+        <v>215412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>229065</v>
+        <v>228592</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9581015087399021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9224586188331145</v>
+        <v>0.9228929602421884</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.981389766131291</v>
+        <v>0.9793633889848264</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>137</v>
@@ -5849,7 +5849,7 @@
         <v>148481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141336</v>
+        <v>142132</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>151017</v>
@@ -5858,7 +5858,7 @@
         <v>0.9832103665632325</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9358929605459473</v>
+        <v>0.9411641352431093</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5870,19 +5870,19 @@
         <v>372111</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>362363</v>
+        <v>362526</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>377903</v>
+        <v>378038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.967965232632748</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9426084639382704</v>
+        <v>0.9430314111023466</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9830306499599716</v>
+        <v>0.9833832316332766</v>
       </c>
     </row>
     <row r="15">
@@ -5974,19 +5974,19 @@
         <v>2857</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7767</v>
+        <v>6974</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03164029865488299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01025421948676396</v>
+        <v>0.0101167180865698</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08602822390101678</v>
+        <v>0.07723546284601064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -6011,16 +6011,16 @@
         <v>932</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8041</v>
+        <v>7601</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02235993692879527</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007297020082942545</v>
+        <v>0.007293988229198993</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06293314948222994</v>
+        <v>0.0594918018444033</v>
       </c>
     </row>
     <row r="17">
@@ -6037,19 +6037,19 @@
         <v>87432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82522</v>
+        <v>83315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89363</v>
+        <v>89376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9683597013451171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9139717760989835</v>
+        <v>0.9227645371539881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.989745780513236</v>
+        <v>0.9898832819134301</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -6071,7 +6071,7 @@
         <v>124907</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119723</v>
+        <v>120163</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>126832</v>
@@ -6080,10 +6080,10 @@
         <v>0.9776400630712048</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9370668505177699</v>
+        <v>0.9405081981555967</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9927029799170575</v>
+        <v>0.9927060117708011</v>
       </c>
     </row>
     <row r="18">
@@ -6175,19 +6175,19 @@
         <v>4784</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1861</v>
+        <v>1875</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10453</v>
+        <v>10740</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02530271882813353</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009843320947222164</v>
+        <v>0.009915948981599164</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05529207570854029</v>
+        <v>0.05681156914977275</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6552</v>
+        <v>6617</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01801668240806268</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0625650869559385</v>
+        <v>0.06317908602355436</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -6217,19 +6217,19 @@
         <v>6670</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2870</v>
+        <v>2884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13311</v>
+        <v>12398</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02270536289777444</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009769646051172682</v>
+        <v>0.009817340063060826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04530787316204572</v>
+        <v>0.04220167674008651</v>
       </c>
     </row>
     <row r="20">
@@ -6246,19 +6246,19 @@
         <v>184269</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178600</v>
+        <v>178313</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>187192</v>
+        <v>187178</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9746972811718665</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9447079242914598</v>
+        <v>0.9431884308502273</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9901566790527778</v>
+        <v>0.9900840510184008</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>102</v>
@@ -6267,7 +6267,7 @@
         <v>102841</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>98176</v>
+        <v>98111</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>104728</v>
@@ -6276,7 +6276,7 @@
         <v>0.9819833175919374</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9374349130440615</v>
+        <v>0.9368209139764456</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -6288,19 +6288,19 @@
         <v>287111</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>280470</v>
+        <v>281383</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>290911</v>
+        <v>290897</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9772946371022255</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9546921268379542</v>
+        <v>0.9577983232599134</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9902303539488273</v>
+        <v>0.9901826599369392</v>
       </c>
     </row>
     <row r="21">
@@ -6392,19 +6392,19 @@
         <v>37628</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25277</v>
+        <v>24896</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52042</v>
+        <v>51175</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09889902454024904</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06643600832494294</v>
+        <v>0.06543443147114751</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1367835765205658</v>
+        <v>0.1345046037698515</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -6413,19 +6413,19 @@
         <v>18398</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11346</v>
+        <v>11308</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27922</v>
+        <v>28083</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07104587604176284</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04381163835710034</v>
+        <v>0.04366603606679518</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1078227161264249</v>
+        <v>0.1084439767153836</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -6434,19 +6434,19 @@
         <v>56027</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42104</v>
+        <v>42258</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73646</v>
+        <v>72912</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08761882107336651</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06584546070676858</v>
+        <v>0.06608639459164042</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1151732394943103</v>
+        <v>0.1140253919923444</v>
       </c>
     </row>
     <row r="23">
@@ -6463,19 +6463,19 @@
         <v>342844</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>328430</v>
+        <v>329297</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>355195</v>
+        <v>355576</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.901100975459751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8632164234794345</v>
+        <v>0.8654953962301485</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9335639916750571</v>
+        <v>0.9345655685288525</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>225</v>
@@ -6484,19 +6484,19 @@
         <v>240566</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>231042</v>
+        <v>230881</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>247618</v>
+        <v>247656</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9289541239582372</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8921772838735751</v>
+        <v>0.8915560232846165</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9561883616428997</v>
+        <v>0.9563339639332049</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>523</v>
@@ -6505,19 +6505,19 @@
         <v>583409</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>565790</v>
+        <v>566524</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>597332</v>
+        <v>597178</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9123811789266335</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8848267605056892</v>
+        <v>0.8859746080076553</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.934154539293231</v>
+        <v>0.9339136054083593</v>
       </c>
     </row>
     <row r="24">
@@ -6609,19 +6609,19 @@
         <v>14089</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8192</v>
+        <v>8221</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23163</v>
+        <v>24423</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03086713692157452</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01794881361508383</v>
+        <v>0.0180108321641648</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05074796631144085</v>
+        <v>0.05351003454494108</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -6630,19 +6630,19 @@
         <v>4169</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10678</v>
+        <v>10395</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01571611298978456</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004043916367085482</v>
+        <v>0.003960768806063146</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04025281082783388</v>
+        <v>0.03918793051304185</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -6651,19 +6651,19 @@
         <v>18258</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11394</v>
+        <v>10883</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29877</v>
+        <v>27443</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02529818463447732</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01578757090406208</v>
+        <v>0.01507925530993995</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04139860926534455</v>
+        <v>0.03802620810302423</v>
       </c>
     </row>
     <row r="26">
@@ -6680,19 +6680,19 @@
         <v>442337</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>433263</v>
+        <v>432003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>448234</v>
+        <v>448205</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9691328630784255</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9492520336885597</v>
+        <v>0.946489965455059</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9820511863849166</v>
+        <v>0.9819891678358355</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>240</v>
@@ -6701,19 +6701,19 @@
         <v>261099</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>254590</v>
+        <v>254873</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>264195</v>
+        <v>264217</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9842838870102154</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9597471891721662</v>
+        <v>0.9608120694869583</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9959560836329145</v>
+        <v>0.9960392311939369</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>660</v>
@@ -6722,19 +6722,19 @@
         <v>703435</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>691816</v>
+        <v>694250</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>710299</v>
+        <v>710810</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9747018153655227</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9586013907346554</v>
+        <v>0.9619737918969757</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9842124290959379</v>
+        <v>0.9849207446900601</v>
       </c>
     </row>
     <row r="27">
@@ -6826,19 +6826,19 @@
         <v>105170</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>85900</v>
+        <v>85508</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>128430</v>
+        <v>127807</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05257904566661846</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04294504020214137</v>
+        <v>0.042748991621025</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06420759252150615</v>
+        <v>0.06389590971081222</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>36</v>
@@ -6847,19 +6847,19 @@
         <v>37300</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27409</v>
+        <v>25898</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>52163</v>
+        <v>51414</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03253938658472359</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02391038757732943</v>
+        <v>0.02259258061296654</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04550556290638092</v>
+        <v>0.04485178710969769</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>130</v>
@@ -6868,19 +6868,19 @@
         <v>142471</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>120886</v>
+        <v>120588</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>169527</v>
+        <v>167944</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04527846141214422</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03841858694651847</v>
+        <v>0.03832384104168201</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05387727321360513</v>
+        <v>0.0533740069602535</v>
       </c>
     </row>
     <row r="29">
@@ -6897,19 +6897,19 @@
         <v>1895066</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1871806</v>
+        <v>1872429</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1914336</v>
+        <v>1914728</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9474209543333816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9357924074784939</v>
+        <v>0.9361040902891878</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9570549597978587</v>
+        <v>0.957251008378975</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1059</v>
@@ -6918,19 +6918,19 @@
         <v>1109007</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1094144</v>
+        <v>1094893</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1118898</v>
+        <v>1120409</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9674606134152764</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.954494437093619</v>
+        <v>0.9551482128903016</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9760896124226704</v>
+        <v>0.9774074193870322</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2857</v>
@@ -6939,19 +6939,19 @@
         <v>3004072</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2977016</v>
+        <v>2978599</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3025657</v>
+        <v>3025955</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9547215385878558</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9461227267863946</v>
+        <v>0.9466259930397465</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9615814130534814</v>
+        <v>0.9616761589583179</v>
       </c>
     </row>
     <row r="30">
@@ -7287,19 +7287,19 @@
         <v>6867</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2471</v>
+        <v>2478</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14611</v>
+        <v>14118</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04041711456400611</v>
+        <v>0.04041711456400612</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01454659459151978</v>
+        <v>0.01458524164518116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08599831399888579</v>
+        <v>0.08309410457579761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7321,19 +7321,19 @@
         <v>6867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2765</v>
+        <v>2480</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15015</v>
+        <v>14991</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0257058947977595</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0103499211160721</v>
+        <v>0.00928550378464032</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05620777047520243</v>
+        <v>0.05611948911241227</v>
       </c>
     </row>
     <row r="5">
@@ -7350,19 +7350,19 @@
         <v>163032</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155288</v>
+        <v>155781</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167428</v>
+        <v>167421</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9595828854359939</v>
+        <v>0.9595828854359941</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9140016860011144</v>
+        <v>0.9169058954242026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9854534054084804</v>
+        <v>0.985414758354819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -7384,19 +7384,19 @@
         <v>260263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>252115</v>
+        <v>252139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264365</v>
+        <v>264650</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9742941052022405</v>
+        <v>0.9742941052022406</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9437922295247972</v>
+        <v>0.9438805108875882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9896500788839278</v>
+        <v>0.9907144962153599</v>
       </c>
     </row>
     <row r="6">
@@ -7488,19 +7488,19 @@
         <v>4174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11975</v>
+        <v>13778</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01613256402527253</v>
+        <v>0.01613256402527252</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003598691687877758</v>
+        <v>0.003543618042516472</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04628611202927793</v>
+        <v>0.05325724376765705</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -7512,16 +7512,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3055</v>
+        <v>2663</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.004927038164763054</v>
+        <v>0.004927038164763055</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02500251631499621</v>
+        <v>0.02179183972985048</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -7530,19 +7530,19 @@
         <v>4776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1328</v>
+        <v>1517</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13026</v>
+        <v>13524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01253814704189025</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003486842481781894</v>
+        <v>0.003983301387024411</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03419944211761849</v>
+        <v>0.03550758192891396</v>
       </c>
     </row>
     <row r="8">
@@ -7559,19 +7559,19 @@
         <v>254537</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>246736</v>
+        <v>244933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>257780</v>
+        <v>257794</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9838674359747275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9537138879707217</v>
+        <v>0.9467427562323429</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9964013083121223</v>
+        <v>0.9964563819574837</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -7580,7 +7580,7 @@
         <v>121577</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>119124</v>
+        <v>119516</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>122179</v>
@@ -7589,7 +7589,7 @@
         <v>0.9950729618352371</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9749974836850041</v>
+        <v>0.9782081602701493</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -7601,19 +7601,19 @@
         <v>376113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>367863</v>
+        <v>367365</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>379561</v>
+        <v>379372</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9874618529581097</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9658005578823806</v>
+        <v>0.9644924180710859</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9965131575182181</v>
+        <v>0.9960166986129755</v>
       </c>
     </row>
     <row r="9">
@@ -7705,19 +7705,19 @@
         <v>23630</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15098</v>
+        <v>15785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33085</v>
+        <v>34508</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1261527282882749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08060565365268003</v>
+        <v>0.08427241631093077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1766315033367071</v>
+        <v>0.1842262950052103</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -7726,19 +7726,19 @@
         <v>2285</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5447</v>
+        <v>5454</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02561461612955419</v>
+        <v>0.0256146161295542</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006670301201783553</v>
+        <v>0.007113612089869659</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06105395281342409</v>
+        <v>0.06113952911023723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -7747,19 +7747,19 @@
         <v>25915</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17699</v>
+        <v>17491</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37102</v>
+        <v>37355</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09371761884372314</v>
+        <v>0.09371761884372312</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06400505664048456</v>
+        <v>0.0632518337126006</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1341747338029108</v>
+        <v>0.1350871973806363</v>
       </c>
     </row>
     <row r="11">
@@ -7776,19 +7776,19 @@
         <v>163683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>154228</v>
+        <v>152805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172215</v>
+        <v>171528</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.873847271711725</v>
+        <v>0.8738472717117252</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8233684966632926</v>
+        <v>0.8157737049947896</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9193943463473199</v>
+        <v>0.9157275836890693</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -7797,19 +7797,19 @@
         <v>86926</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83764</v>
+        <v>83757</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88616</v>
+        <v>88576</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9743853838704456</v>
+        <v>0.9743853838704459</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9389460471865758</v>
+        <v>0.9388604708897627</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9933296987982164</v>
+        <v>0.9928863879101305</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>309</v>
@@ -7818,19 +7818,19 @@
         <v>250608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>239421</v>
+        <v>239168</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>258824</v>
+        <v>259032</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9062823811562769</v>
+        <v>0.9062823811562767</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8658252661970895</v>
+        <v>0.8649128026193641</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9359949433595153</v>
+        <v>0.9367481662873995</v>
       </c>
     </row>
     <row r="12">
@@ -7922,19 +7922,19 @@
         <v>8636</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3824</v>
+        <v>4074</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17008</v>
+        <v>16709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04244830306149072</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01879878334330688</v>
+        <v>0.02002694326908909</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08360468362180963</v>
+        <v>0.0821345486701522</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3240</v>
+        <v>3582</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00707498266984749</v>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02341640570510514</v>
+        <v>0.02588589065256811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -7964,19 +7964,19 @@
         <v>9614</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4857</v>
+        <v>4951</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18036</v>
+        <v>18078</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02812868961817109</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01421139166787651</v>
+        <v>0.01448575182693988</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05276758840687025</v>
+        <v>0.05288941254210048</v>
       </c>
     </row>
     <row r="14">
@@ -7993,19 +7993,19 @@
         <v>194800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>186428</v>
+        <v>186727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199612</v>
+        <v>199362</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9575516969385094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9163953163781904</v>
+        <v>0.9178654513298478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.981201216656693</v>
+        <v>0.979973056730911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>178</v>
@@ -8014,7 +8014,7 @@
         <v>137387</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>135126</v>
+        <v>134784</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>138366</v>
@@ -8023,7 +8023,7 @@
         <v>0.9929250173301526</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9765835942948946</v>
+        <v>0.9741141093474305</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -8035,19 +8035,19 @@
         <v>332188</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>323766</v>
+        <v>323724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>336945</v>
+        <v>336851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9718713103818289</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.94723241159313</v>
+        <v>0.9471105874578993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9857886083321236</v>
+        <v>0.98551424817306</v>
       </c>
     </row>
     <row r="15">
@@ -8155,16 +8155,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -8176,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01043608217614646</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="17">
@@ -8215,7 +8215,7 @@
         <v>10376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8388</v>
+        <v>8653</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>10845</v>
@@ -8224,7 +8224,7 @@
         <v>0.9567126343998554</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7734044365956327</v>
+        <v>0.7978855759162851</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -8236,16 +8236,16 @@
         <v>44513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42594</v>
+        <v>42150</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>44982</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9895639178238534</v>
+        <v>0.9895639178238536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9469127490655411</v>
+        <v>0.9370352286524489</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -8340,19 +8340,19 @@
         <v>9208</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5166</v>
+        <v>4866</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15995</v>
+        <v>15664</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05650211753724478</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03169856417945287</v>
+        <v>0.02985980371134925</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09814748774676285</v>
+        <v>0.09611197171420693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -8361,19 +8361,19 @@
         <v>2838</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6912</v>
+        <v>6695</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02889909204036582</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008433623804990284</v>
+        <v>0.008246449755281538</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.070387652937405</v>
+        <v>0.06818180567449834</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -8382,19 +8382,19 @@
         <v>12046</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7296</v>
+        <v>7153</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19179</v>
+        <v>19214</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04612390103328343</v>
+        <v>0.04612390103328345</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02793740368193215</v>
+        <v>0.02738777092264222</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07343647704526327</v>
+        <v>0.07357157239111074</v>
       </c>
     </row>
     <row r="20">
@@ -8411,19 +8411,19 @@
         <v>153765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>146978</v>
+        <v>147309</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157807</v>
+        <v>158107</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9434978824627552</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9018525122532368</v>
+        <v>0.9038880282857922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9683014358205471</v>
+        <v>0.9701401962886504</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>144</v>
@@ -8432,19 +8432,19 @@
         <v>95356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91282</v>
+        <v>91499</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>97366</v>
+        <v>97384</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9711009079596342</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.929612347062595</v>
+        <v>0.9318181943255033</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9915663761950098</v>
+        <v>0.9917535502447185</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>343</v>
@@ -8453,19 +8453,19 @@
         <v>249121</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>241988</v>
+        <v>241953</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>253871</v>
+        <v>254014</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9538760989667167</v>
+        <v>0.9538760989667165</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9265635229547368</v>
+        <v>0.9264284276088892</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9720625963180679</v>
+        <v>0.9726122290773574</v>
       </c>
     </row>
     <row r="21">
@@ -8557,19 +8557,19 @@
         <v>49594</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36432</v>
+        <v>35098</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68541</v>
+        <v>67394</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.141816533534832</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1041791295749751</v>
+        <v>0.1003638667733414</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1959962295425874</v>
+        <v>0.1927171057238328</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -8578,19 +8578,19 @@
         <v>20355</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12161</v>
+        <v>11767</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32367</v>
+        <v>31487</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08659712375919995</v>
+        <v>0.08659712375919994</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05173995577667281</v>
+        <v>0.05006197430525777</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1377022075629026</v>
+        <v>0.1339577764876837</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -8599,19 +8599,19 @@
         <v>69949</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53292</v>
+        <v>53238</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91960</v>
+        <v>91274</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1196203702790626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09113645863403322</v>
+        <v>0.09104389565867277</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1572628876436335</v>
+        <v>0.1560891109318381</v>
       </c>
     </row>
     <row r="23">
@@ -8628,19 +8628,19 @@
         <v>300111</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>281164</v>
+        <v>282311</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>313273</v>
+        <v>314607</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.858183466465168</v>
+        <v>0.8581834664651681</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8040037704574139</v>
+        <v>0.8072828942761677</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.895820870425025</v>
+        <v>0.8996361332266588</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>269</v>
@@ -8649,19 +8649,19 @@
         <v>214695</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>202683</v>
+        <v>203563</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>222889</v>
+        <v>223283</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9134028762408001</v>
+        <v>0.9134028762408</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8622977924370976</v>
+        <v>0.8660422235123169</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9482600442233274</v>
+        <v>0.9499380256947425</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>521</v>
@@ -8670,19 +8670,19 @@
         <v>514806</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>492795</v>
+        <v>493481</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>531463</v>
+        <v>531517</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8803796297209373</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8427371123563666</v>
+        <v>0.8439108890681624</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9088635413659669</v>
+        <v>0.9089561043413272</v>
       </c>
     </row>
     <row r="24">
@@ -8774,19 +8774,19 @@
         <v>7077</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2958</v>
+        <v>2992</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13961</v>
+        <v>13203</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02251505450592803</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00941107668524451</v>
+        <v>0.009518150157386544</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04441487486749741</v>
+        <v>0.04200404123825702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -8795,19 +8795,19 @@
         <v>3719</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>831</v>
+        <v>1320</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9027</v>
+        <v>9223</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.032355642890933</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007228523333373094</v>
+        <v>0.01148251929995985</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07852824393969023</v>
+        <v>0.080231052208989</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -8816,19 +8816,19 @@
         <v>10797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5402</v>
+        <v>5515</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19110</v>
+        <v>17710</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02515013355270746</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01258472745940261</v>
+        <v>0.01284707778652635</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04451626548308392</v>
+        <v>0.04125382039458252</v>
       </c>
     </row>
     <row r="26">
@@ -8845,19 +8845,19 @@
         <v>307259</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>300375</v>
+        <v>301133</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>311378</v>
+        <v>311344</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9774849454940718</v>
+        <v>0.9774849454940721</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9555851251325025</v>
+        <v>0.9579959587617429</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9905889233147555</v>
+        <v>0.9904818498426133</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>133</v>
@@ -8866,19 +8866,19 @@
         <v>111235</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>105927</v>
+        <v>105731</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114123</v>
+        <v>113634</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9676443571090669</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9214717560603097</v>
+        <v>0.9197689477910111</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9927714766666269</v>
+        <v>0.9885174807000402</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>429</v>
@@ -8887,19 +8887,19 @@
         <v>418492</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>410179</v>
+        <v>411579</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>423887</v>
+        <v>423774</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9748498664472924</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.955483734516916</v>
+        <v>0.9587461796054175</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9874152725405974</v>
+        <v>0.9871529222134736</v>
       </c>
     </row>
     <row r="27">
@@ -8991,19 +8991,19 @@
         <v>109186</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>87897</v>
+        <v>89381</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>133395</v>
+        <v>133237</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.06497170862264531</v>
+        <v>0.0649717086226453</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05230373750540503</v>
+        <v>0.05318676369170892</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07937799644732528</v>
+        <v>0.07928383363642615</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>34</v>
@@ -9012,19 +9012,19 @@
         <v>31247</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22011</v>
+        <v>21104</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>47850</v>
+        <v>45190</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03448807986340396</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02429401313399493</v>
+        <v>0.02329307808691432</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05281269096231031</v>
+        <v>0.04987742228309101</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>134</v>
@@ -9033,19 +9033,19 @@
         <v>140433</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>118261</v>
+        <v>114188</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>169370</v>
+        <v>167633</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05429371167008844</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04572191984323507</v>
+        <v>0.04414695530833349</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0654815182361468</v>
+        <v>0.06480990288459665</v>
       </c>
     </row>
     <row r="29">
@@ -9062,19 +9062,19 @@
         <v>1571323</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1547114</v>
+        <v>1547272</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1592612</v>
+        <v>1591128</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9350282913773548</v>
+        <v>0.9350282913773549</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9206220035526748</v>
+        <v>0.920716166363574</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.947696262494595</v>
+        <v>0.9468132363082913</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1170</v>
@@ -9083,19 +9083,19 @@
         <v>874782</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>858179</v>
+        <v>860839</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>884018</v>
+        <v>884925</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9655119201365961</v>
+        <v>0.965511920136596</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9471873090376898</v>
+        <v>0.9501225777169096</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9757059868660051</v>
+        <v>0.9767069219130858</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2657</v>
@@ -9104,19 +9104,19 @@
         <v>2446105</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2417168</v>
+        <v>2418905</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2468277</v>
+        <v>2472350</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9457062883299117</v>
+        <v>0.9457062883299114</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9345184817638533</v>
+        <v>0.9351900971154031</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9542780801567652</v>
+        <v>0.9558530446916664</v>
       </c>
     </row>
     <row r="30">
